--- a/natmiOut/OldD4/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H2">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I2">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J2">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N2">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O2">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P2">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q2">
-        <v>84.02643909965229</v>
+        <v>222.6895616969159</v>
       </c>
       <c r="R2">
-        <v>84.02643909965229</v>
+        <v>2004.206055272244</v>
       </c>
       <c r="S2">
-        <v>0.1336468252488694</v>
+        <v>0.2230357066961606</v>
       </c>
       <c r="T2">
-        <v>0.1336468252488694</v>
+        <v>0.233229164551245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H3">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I3">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J3">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N3">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P3">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q3">
-        <v>127.6926199152096</v>
+        <v>143.9824467188347</v>
       </c>
       <c r="R3">
-        <v>127.6926199152096</v>
+        <v>1295.842020469512</v>
       </c>
       <c r="S3">
-        <v>0.2030993273336147</v>
+        <v>0.1442062506705374</v>
       </c>
       <c r="T3">
-        <v>0.2030993273336147</v>
+        <v>0.1507969457678582</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H4">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I4">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J4">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N4">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O4">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P4">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q4">
-        <v>7.283181925314537</v>
+        <v>8.469902766401109</v>
       </c>
       <c r="R4">
-        <v>7.283181925314537</v>
+        <v>76.22912489760999</v>
       </c>
       <c r="S4">
-        <v>0.01158414128288657</v>
+        <v>0.008483068244227447</v>
       </c>
       <c r="T4">
-        <v>0.01158414128288657</v>
+        <v>0.008870772078336564</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H5">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I5">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J5">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N5">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O5">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P5">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q5">
-        <v>13.34183728509933</v>
+        <v>16.64833956044178</v>
       </c>
       <c r="R5">
-        <v>13.34183728509933</v>
+        <v>149.835056043976</v>
       </c>
       <c r="S5">
-        <v>0.02122063263951761</v>
+        <v>0.01667421746617144</v>
       </c>
       <c r="T5">
-        <v>0.02122063263951761</v>
+        <v>0.01743628348477302</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.4120795377687</v>
+        <v>46.70430066666666</v>
       </c>
       <c r="H6">
-        <v>43.4120795377687</v>
+        <v>140.112902</v>
       </c>
       <c r="I6">
-        <v>0.4205468815077022</v>
+        <v>0.4277960227396158</v>
       </c>
       <c r="J6">
-        <v>0.4205468815077022</v>
+        <v>0.4350095176968582</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N6">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O6">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P6">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q6">
-        <v>32.06217954966947</v>
+        <v>35.34184487897667</v>
       </c>
       <c r="R6">
-        <v>32.06217954966947</v>
+        <v>212.05106927386</v>
       </c>
       <c r="S6">
-        <v>0.0509959550028139</v>
+        <v>0.0353967796625189</v>
       </c>
       <c r="T6">
-        <v>0.0509959550028139</v>
+        <v>0.02467635181464541</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H7">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I7">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J7">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N7">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O7">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P7">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q7">
-        <v>25.73190799325654</v>
+        <v>66.99909404812799</v>
       </c>
       <c r="R7">
-        <v>25.73190799325654</v>
+        <v>602.991846433152</v>
       </c>
       <c r="S7">
-        <v>0.04092744911891635</v>
+        <v>0.0671032363401239</v>
       </c>
       <c r="T7">
-        <v>0.04092744911891635</v>
+        <v>0.07017007268532241</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H8">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I8">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J8">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N8">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P8">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q8">
-        <v>39.10405798797738</v>
+        <v>43.31901960507734</v>
       </c>
       <c r="R8">
-        <v>39.10405798797738</v>
+        <v>389.871176445696</v>
       </c>
       <c r="S8">
-        <v>0.06219629512376294</v>
+        <v>0.04338635397806823</v>
       </c>
       <c r="T8">
-        <v>0.06219629512376294</v>
+        <v>0.04536925159259097</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H9">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I9">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J9">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N9">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O9">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P9">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q9">
-        <v>2.230371407005372</v>
+        <v>2.548282046542222</v>
       </c>
       <c r="R9">
-        <v>2.230371407005372</v>
+        <v>22.93453841888</v>
       </c>
       <c r="S9">
-        <v>0.003547479351333781</v>
+        <v>0.002552243054325227</v>
       </c>
       <c r="T9">
-        <v>0.003547479351333781</v>
+        <v>0.002668888870349823</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H10">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I10">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J10">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N10">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O10">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P10">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q10">
-        <v>4.085748880468699</v>
+        <v>5.008872708067555</v>
       </c>
       <c r="R10">
-        <v>4.085748880468699</v>
+        <v>45.079854372608</v>
       </c>
       <c r="S10">
-        <v>0.006498518472158169</v>
+        <v>0.005016658417584152</v>
       </c>
       <c r="T10">
-        <v>0.006498518472158169</v>
+        <v>0.005245936038241826</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.294335073952</v>
+        <v>14.05160533333333</v>
       </c>
       <c r="H11">
-        <v>13.294335073952</v>
+        <v>42.154816</v>
       </c>
       <c r="I11">
-        <v>0.1287865316888329</v>
+        <v>0.1287080801746603</v>
       </c>
       <c r="J11">
-        <v>0.1287865316888329</v>
+        <v>0.1308783553477452</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N11">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O11">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P11">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q11">
-        <v>9.818588804613292</v>
+        <v>10.63306052981333</v>
       </c>
       <c r="R11">
-        <v>9.818588804613292</v>
+        <v>63.79836317888</v>
       </c>
       <c r="S11">
-        <v>0.01561678962266161</v>
+        <v>0.01064958838455881</v>
       </c>
       <c r="T11">
-        <v>0.01561678962266161</v>
+        <v>0.007424206161240193</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H12">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I12">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J12">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N12">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O12">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P12">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q12">
-        <v>28.895156969529</v>
+        <v>72.70764044682599</v>
       </c>
       <c r="R12">
-        <v>28.895156969529</v>
+        <v>654.368764021434</v>
       </c>
       <c r="S12">
-        <v>0.04595870104010244</v>
+        <v>0.07282065600963804</v>
       </c>
       <c r="T12">
-        <v>0.04595870104010244</v>
+        <v>0.0761487970459299</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H13">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I13">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J13">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N13">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P13">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q13">
-        <v>43.91115862858999</v>
+        <v>47.00994463734801</v>
       </c>
       <c r="R13">
-        <v>43.91115862858999</v>
+        <v>423.089501736132</v>
       </c>
       <c r="S13">
-        <v>0.06984214738352319</v>
+        <v>0.04708301612362238</v>
       </c>
       <c r="T13">
-        <v>0.06984214738352319</v>
+        <v>0.04923486323212247</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H14">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I14">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J14">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N14">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O14">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P14">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q14">
-        <v>2.504553176649739</v>
+        <v>2.765404180898333</v>
       </c>
       <c r="R14">
-        <v>2.504553176649739</v>
+        <v>24.888637628085</v>
       </c>
       <c r="S14">
-        <v>0.003983574507176678</v>
+        <v>0.002769702679762913</v>
       </c>
       <c r="T14">
-        <v>0.003983574507176678</v>
+        <v>0.002896287108576992</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H15">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I15">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J15">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N15">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O15">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P15">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q15">
-        <v>4.588014043504256</v>
+        <v>5.435645378137333</v>
       </c>
       <c r="R15">
-        <v>4.588014043504256</v>
+        <v>48.920808403236</v>
       </c>
       <c r="S15">
-        <v>0.007297387794624625</v>
+        <v>0.005444094456086797</v>
       </c>
       <c r="T15">
-        <v>0.007297387794624625</v>
+        <v>0.005692907295157534</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.9286208728878</v>
+        <v>15.248849</v>
       </c>
       <c r="H16">
-        <v>14.9286208728878</v>
+        <v>45.746547</v>
       </c>
       <c r="I16">
-        <v>0.1446183877886271</v>
+        <v>0.1396744381232708</v>
       </c>
       <c r="J16">
-        <v>0.1446183877886271</v>
+        <v>0.1420296279836289</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N16">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O16">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P16">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q16">
-        <v>11.02559766663676</v>
+        <v>11.539032771035</v>
       </c>
       <c r="R16">
-        <v>11.02559766663676</v>
+        <v>69.23419662621001</v>
       </c>
       <c r="S16">
-        <v>0.01753657706320014</v>
+        <v>0.01155696885416066</v>
       </c>
       <c r="T16">
-        <v>0.01753657706320014</v>
+        <v>0.008056773301842051</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H17">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I17">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J17">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N17">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O17">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P17">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q17">
-        <v>50.66129407735104</v>
+        <v>132.258583316442</v>
       </c>
       <c r="R17">
-        <v>50.66129407735104</v>
+        <v>1190.327249847978</v>
       </c>
       <c r="S17">
-        <v>0.0805784606486476</v>
+        <v>0.1324641638873197</v>
       </c>
       <c r="T17">
-        <v>0.0805784606486476</v>
+        <v>0.1385182073940567</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H18">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I18">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J18">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N18">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P18">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q18">
-        <v>76.98854596658276</v>
+        <v>85.51327812744934</v>
       </c>
       <c r="R18">
-        <v>76.98854596658276</v>
+        <v>769.619503147044</v>
       </c>
       <c r="S18">
-        <v>0.1224528238874639</v>
+        <v>0.08564619856326715</v>
       </c>
       <c r="T18">
-        <v>0.1224528238874639</v>
+        <v>0.08956050864587727</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H19">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I19">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J19">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N19">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O19">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P19">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q19">
-        <v>4.391182409855737</v>
+        <v>5.030398965160555</v>
       </c>
       <c r="R19">
-        <v>4.391182409855737</v>
+        <v>45.27359068644499</v>
       </c>
       <c r="S19">
-        <v>0.006984320583547463</v>
+        <v>0.005038218134737822</v>
       </c>
       <c r="T19">
-        <v>0.006984320583547463</v>
+        <v>0.005268481104653824</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H20">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I20">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J20">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N20">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O20">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P20">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q20">
-        <v>8.044072192931724</v>
+        <v>9.887692032156888</v>
       </c>
       <c r="R20">
-        <v>8.044072192931724</v>
+        <v>88.989228289412</v>
       </c>
       <c r="S20">
-        <v>0.0127943623718607</v>
+        <v>0.009903061298344855</v>
       </c>
       <c r="T20">
-        <v>0.0127943623718607</v>
+        <v>0.01035566343760014</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>26.1740489248146</v>
+        <v>27.73836633333333</v>
       </c>
       <c r="H21">
-        <v>26.1740489248146</v>
+        <v>83.215099</v>
       </c>
       <c r="I21">
-        <v>0.2535564932378857</v>
+        <v>0.2540743063339262</v>
       </c>
       <c r="J21">
-        <v>0.2535564932378857</v>
+        <v>0.258358506350017</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N21">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O21">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P21">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q21">
-        <v>19.33095730738109</v>
+        <v>20.99003787992833</v>
       </c>
       <c r="R21">
-        <v>19.33095730738109</v>
+        <v>125.94022727957</v>
       </c>
       <c r="S21">
-        <v>0.03074652574636602</v>
+        <v>0.02102266445025667</v>
       </c>
       <c r="T21">
-        <v>0.03074652574636602</v>
+        <v>0.01465564576782906</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H22">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I22">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J22">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N22">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O22">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P22">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q22">
-        <v>10.48798912238077</v>
+        <v>25.895920077918</v>
       </c>
       <c r="R22">
-        <v>10.48798912238077</v>
+        <v>155.375520467508</v>
       </c>
       <c r="S22">
-        <v>0.01668149292615526</v>
+        <v>0.02593617227100467</v>
       </c>
       <c r="T22">
-        <v>0.01668149292615526</v>
+        <v>0.01808102651672177</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H23">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I23">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J23">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N23">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O23">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P23">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q23">
-        <v>15.9383025513045</v>
+        <v>16.743299077164</v>
       </c>
       <c r="R23">
-        <v>15.9383025513045</v>
+        <v>100.459794462984</v>
       </c>
       <c r="S23">
-        <v>0.0253503963593123</v>
+        <v>0.0167693245864077</v>
       </c>
       <c r="T23">
-        <v>0.0253503963593123</v>
+        <v>0.01169049154000729</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H24">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I24">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J24">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N24">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O24">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P24">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q24">
-        <v>0.9090702120368107</v>
+        <v>0.9849403062950001</v>
       </c>
       <c r="R24">
-        <v>0.9090702120368107</v>
+        <v>5.909641837770001</v>
       </c>
       <c r="S24">
-        <v>0.001445906182254712</v>
+        <v>0.0009864712813392746</v>
       </c>
       <c r="T24">
-        <v>0.001445906182254712</v>
+        <v>0.0006877041534698678</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H25">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I25">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J25">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N25">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O25">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P25">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q25">
-        <v>1.665297801716257</v>
+        <v>1.935986884172</v>
       </c>
       <c r="R25">
-        <v>1.665297801716257</v>
+        <v>11.615921305032</v>
       </c>
       <c r="S25">
-        <v>0.002648711128045648</v>
+        <v>0.001938996150405463</v>
       </c>
       <c r="T25">
-        <v>0.002648711128045648</v>
+        <v>0.001351743057725478</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.41859708504452</v>
+        <v>5.431107000000001</v>
       </c>
       <c r="H26">
-        <v>5.41859708504452</v>
+        <v>10.862214</v>
       </c>
       <c r="I26">
-        <v>0.05249170577695213</v>
+        <v>0.0497471526285271</v>
       </c>
       <c r="J26">
-        <v>0.05249170577695213</v>
+        <v>0.03372399262175058</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N26">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O26">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P26">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q26">
-        <v>4.001928368735836</v>
+        <v>4.109800133505001</v>
       </c>
       <c r="R26">
-        <v>4.001928368735836</v>
+        <v>16.43920053402</v>
       </c>
       <c r="S26">
-        <v>0.006365199181184206</v>
+        <v>0.004116188339370005</v>
       </c>
       <c r="T26">
-        <v>0.006365199181184206</v>
+        <v>0.00191302735382618</v>
       </c>
     </row>
   </sheetData>
